--- a/SmartKitchen-Emdebbed System/Documents/Farnel-list 3.xlsx
+++ b/SmartKitchen-Emdebbed System/Documents/Farnel-list 3.xlsx
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,11 +1272,13 @@
     <hyperlink ref="E11" r:id="rId5"/>
     <hyperlink ref="E12" r:id="rId6"/>
     <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E4" r:id="rId8"/>
+    <hyperlink ref="E10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId8"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>